--- a/aviation/data/flightTraffic.xlsx
+++ b/aviation/data/flightTraffic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinsun/git/internet/aviation/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{118F8757-C085-DB44-8EE3-5B1F23D4EE2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3589569-FFBA-444E-8585-9D8CC6CF990F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1980" yWindow="2460" windowWidth="26440" windowHeight="15040" xr2:uid="{EAB25BCD-0B0C-0D44-B8D6-6FC3FF9A34C4}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Traffic Data" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -312,9 +312,6 @@
     <t>Kiribati</t>
   </si>
   <si>
-    <t>Korea, Rep.</t>
-  </si>
-  <si>
     <t>Kuwait</t>
   </si>
   <si>
@@ -616,6 +613,9 @@
   </si>
   <si>
     <t>Passengers</t>
+  </si>
+  <si>
+    <t>South Korea</t>
   </si>
 </sst>
 </file>
@@ -978,8 +978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79FB7BA9-8501-A346-8AA5-A9E2AF36037D}">
   <dimension ref="A1:I191"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -990,10 +990,10 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B1" t="s">
         <v>192</v>
-      </c>
-      <c r="B1" t="s">
-        <v>193</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="1"/>
@@ -1005,7 +1005,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B2">
         <v>4232644721.0943251</v>
@@ -1052,7 +1052,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B7">
         <v>963711148.88175833</v>
@@ -1060,7 +1060,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B8">
         <v>889022000</v>
@@ -1100,7 +1100,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B13">
         <v>454263690.40151519</v>
@@ -1108,7 +1108,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B14">
         <v>292832219.45270592</v>
@@ -1116,7 +1116,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B15">
         <v>290800068.92391378</v>
@@ -1124,7 +1124,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B16">
         <v>263762100.7494798</v>
@@ -1132,7 +1132,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B17">
         <v>263132444.01364681</v>
@@ -1140,7 +1140,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B18">
         <v>255798984.09907892</v>
@@ -1164,7 +1164,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B21">
         <v>189225467.36711717</v>
@@ -1172,7 +1172,7 @@
     </row>
     <row r="22" spans="1:2" ht="15" customHeight="1">
       <c r="A22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B22">
         <v>189225467.36711717</v>
@@ -1212,7 +1212,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B27">
         <v>115595495.817</v>
@@ -1244,7 +1244,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B31">
         <v>99327311</v>
@@ -1268,7 +1268,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>92</v>
+        <v>193</v>
       </c>
       <c r="B34">
         <v>88157579</v>
@@ -1284,7 +1284,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B36">
         <v>76053042.753999993</v>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B40">
         <v>66517430.014646769</v>
@@ -1324,7 +1324,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B41">
         <v>66517430.014646761</v>
@@ -1332,7 +1332,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B42">
         <v>64569640</v>
@@ -1340,7 +1340,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B43">
         <v>63070540.212033078</v>
@@ -1348,7 +1348,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B44">
         <v>63070540.212033078</v>
@@ -1356,7 +1356,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B45">
         <v>62615339.212033078</v>
@@ -1364,7 +1364,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B46">
         <v>61652480.527986839</v>
@@ -1372,7 +1372,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B47">
         <v>60481772</v>
@@ -1396,7 +1396,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B50">
         <v>47049671</v>
@@ -1404,7 +1404,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B51">
         <v>43996044.579144001</v>
@@ -1412,7 +1412,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B52">
         <v>43080118</v>
@@ -1428,7 +1428,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B54">
         <v>40401515</v>
@@ -1436,7 +1436,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B55">
         <v>39141659.998999998</v>
@@ -1444,7 +1444,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B56">
         <v>37807273.656640209</v>
@@ -1476,7 +1476,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B60">
         <v>29178923</v>
@@ -1500,7 +1500,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B63">
         <v>26424490.551980581</v>
@@ -1524,7 +1524,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B66">
         <v>23921748.070052501</v>
@@ -1532,7 +1532,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B67">
         <v>22950296.969687469</v>
@@ -1556,7 +1556,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B70">
         <v>17758527.272</v>
@@ -1564,7 +1564,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B71">
         <v>17367956</v>
@@ -1572,7 +1572,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B72">
         <v>17249049.954136699</v>
@@ -1612,7 +1612,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B77">
         <v>12939350</v>
@@ -1628,7 +1628,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B79">
         <v>12340832</v>
@@ -1644,7 +1644,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B81">
         <v>10438241</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B82">
         <v>9277538</v>
@@ -1660,7 +1660,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B83">
         <v>8169192.3099999996</v>
@@ -1668,7 +1668,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B84">
         <v>8132917</v>
@@ -1676,7 +1676,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B85">
         <v>7854842</v>
@@ -1708,7 +1708,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B89">
         <v>6880637</v>
@@ -1716,7 +1716,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B90">
         <v>6464847</v>
@@ -1756,7 +1756,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B95">
         <v>5882376</v>
@@ -1788,7 +1788,7 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B99">
         <v>4908235</v>
@@ -1796,7 +1796,7 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B100">
         <v>4274199</v>
@@ -1812,7 +1812,7 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B102">
         <v>4058762</v>
@@ -1820,7 +1820,7 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B103">
         <v>3407788.43290303</v>
@@ -1836,7 +1836,7 @@
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B105">
         <v>3296953</v>
@@ -1844,7 +1844,7 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B106">
         <v>3157724</v>
@@ -1852,7 +1852,7 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B107">
         <v>3056558</v>
@@ -1860,7 +1860,7 @@
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B108">
         <v>2981937</v>
@@ -1876,7 +1876,7 @@
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B110">
         <v>2746732</v>
@@ -1884,7 +1884,7 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B111">
         <v>2576898</v>
@@ -1892,7 +1892,7 @@
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B112">
         <v>2545105</v>
@@ -1900,7 +1900,7 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B113">
         <v>2525130</v>
@@ -1908,7 +1908,7 @@
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B114">
         <v>2457474</v>
@@ -1924,7 +1924,7 @@
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B116">
         <v>2262703</v>
@@ -1932,7 +1932,7 @@
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B117">
         <v>2137771</v>
@@ -1940,7 +1940,7 @@
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B118">
         <v>2099102</v>
@@ -1972,7 +1972,7 @@
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B122">
         <v>1745291</v>
@@ -2004,7 +2004,7 @@
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B126">
         <v>1481557</v>
@@ -2028,7 +2028,7 @@
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B129">
         <v>1251961.7858551999</v>
@@ -2052,7 +2052,7 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B132">
         <v>1147247</v>
@@ -2060,7 +2060,7 @@
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B133">
         <v>1135999</v>
@@ -2068,7 +2068,7 @@
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B134">
         <v>1094762</v>
@@ -2076,7 +2076,7 @@
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B135">
         <v>1073528</v>
@@ -2092,7 +2092,7 @@
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B137">
         <v>964713</v>
@@ -2108,7 +2108,7 @@
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B139">
         <v>927153.88070240302</v>
@@ -2132,7 +2132,7 @@
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B142">
         <v>670360</v>
@@ -2140,7 +2140,7 @@
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B143">
         <v>602893</v>
@@ -2156,7 +2156,7 @@
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B145">
         <v>566295</v>
@@ -2164,7 +2164,7 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B146">
         <v>565522</v>
@@ -2180,7 +2180,7 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B148">
         <v>560631</v>
@@ -2188,7 +2188,7 @@
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B149">
         <v>541290</v>
@@ -2196,7 +2196,7 @@
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B150">
         <v>540124</v>
@@ -2212,7 +2212,7 @@
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B152">
         <v>492320</v>
@@ -2236,7 +2236,7 @@
     </row>
     <row r="155" spans="1:2">
       <c r="A155" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B155">
         <v>455201</v>
@@ -2244,7 +2244,7 @@
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B156">
         <v>454435.69724270102</v>
@@ -2252,7 +2252,7 @@
     </row>
     <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B157">
         <v>427806</v>
@@ -2276,7 +2276,7 @@
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B160">
         <v>374603</v>
@@ -2284,7 +2284,7 @@
     </row>
     <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B161">
         <v>336310</v>
@@ -2308,7 +2308,7 @@
     </row>
     <row r="164" spans="1:2">
       <c r="A164" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B164">
         <v>282539</v>
@@ -2332,7 +2332,7 @@
     </row>
     <row r="167" spans="1:2">
       <c r="A167" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B167">
         <v>272347</v>
@@ -2340,7 +2340,7 @@
     </row>
     <row r="168" spans="1:2">
       <c r="A168" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B168">
         <v>269958.48</v>
@@ -2396,7 +2396,7 @@
     </row>
     <row r="175" spans="1:2">
       <c r="A175" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B175">
         <v>137770</v>
@@ -2404,7 +2404,7 @@
     </row>
     <row r="176" spans="1:2">
       <c r="A176" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B176">
         <v>103560</v>
@@ -2436,7 +2436,7 @@
     </row>
     <row r="180" spans="1:2">
       <c r="A180" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B180">
         <v>45457</v>
@@ -2460,7 +2460,7 @@
     </row>
     <row r="183" spans="1:2">
       <c r="A183" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B183">
         <v>26031</v>
@@ -2468,7 +2468,7 @@
     </row>
     <row r="184" spans="1:2">
       <c r="A184" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B184">
         <v>24313</v>
@@ -2476,7 +2476,7 @@
     </row>
     <row r="185" spans="1:2">
       <c r="A185" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B185">
         <v>21537</v>
@@ -2484,7 +2484,7 @@
     </row>
     <row r="186" spans="1:2">
       <c r="A186" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B186">
         <v>21038</v>
@@ -2492,7 +2492,7 @@
     </row>
     <row r="187" spans="1:2">
       <c r="A187" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B187">
         <v>17896.921165363201</v>
@@ -2500,7 +2500,7 @@
     </row>
     <row r="188" spans="1:2">
       <c r="A188" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B188">
         <v>10545</v>
@@ -2508,7 +2508,7 @@
     </row>
     <row r="189" spans="1:2">
       <c r="A189" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B189">
         <v>8904</v>
@@ -2516,7 +2516,7 @@
     </row>
     <row r="190" spans="1:2">
       <c r="A190" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B190">
         <v>4486</v>
@@ -2524,7 +2524,7 @@
     </row>
     <row r="191" spans="1:2">
       <c r="A191" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B191">
         <v>316</v>
@@ -2553,7 +2553,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
